--- a/potato/potato.xlsx
+++ b/potato/potato.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7375dc4232974b34/Documents/GitHub/scratch/potato/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{8ABC3B86-0BC8-4A52-B230-F4DDD4D7A4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBCC17E7-D170-40F5-9147-7ADB4345993B}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{8ABC3B86-0BC8-4A52-B230-F4DDD4D7A4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8283C8F3-0AE4-48D5-9BA2-3C8F2E54EF6D}"/>
   <bookViews>
-    <workbookView xWindow="9408" yWindow="804" windowWidth="16500" windowHeight="15264" activeTab="1" xr2:uid="{66E4708A-3751-4159-9CB5-6C73957F8B92}"/>
+    <workbookView xWindow="-2952" yWindow="1056" windowWidth="16500" windowHeight="15264" xr2:uid="{66E4708A-3751-4159-9CB5-6C73957F8B92}"/>
   </bookViews>
   <sheets>
     <sheet name="small" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3707821D-2DD5-46EF-A15C-6B485734E466}" type="CELLRANGE">
+                    <a:fld id="{6B2ECBB3-56EC-4EC8-9191-47F8E320E65F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -202,7 +202,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA4F38D1-8E50-4436-85CA-B29BBEDE46A5}" type="CELLRANGE">
+                    <a:fld id="{CA910A6F-313A-4278-A0E4-6B8AA830A08E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -235,7 +235,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD530905-0184-442A-B9A1-31CA55667F19}" type="CELLRANGE">
+                    <a:fld id="{B2722F91-FD73-4AA7-A2D1-B97BAE9E7794}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -268,7 +268,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E06D381-8ECC-45D8-88A8-D3FE4230178E}" type="CELLRANGE">
+                    <a:fld id="{B2674B71-7641-4D1F-B614-B04029EFEA77}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -301,7 +301,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C74B6F46-3416-41BA-A9DE-5B21EB038F26}" type="CELLRANGE">
+                    <a:fld id="{FD216ACE-2BCC-443B-9E75-F99DF65E08DD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -334,7 +334,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F30FA979-96B7-418C-A195-6F476BC71042}" type="CELLRANGE">
+                    <a:fld id="{B6292DE7-F150-4B7C-A964-FCBB106441A2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -367,7 +367,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2BFB5C3E-C855-461C-A8EC-1A7024A7883D}" type="CELLRANGE">
+                    <a:fld id="{19D3241E-773E-4E41-9A4B-3CC27850CCE9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -400,7 +400,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4195A295-25BF-4EAC-B70B-B7C5F2521E73}" type="CELLRANGE">
+                    <a:fld id="{0DF7DBA2-40FB-43C9-9E7E-39F68E05CCF4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -433,7 +433,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{44EEEB06-6A42-48FD-B9DB-BF72CEB15166}" type="CELLRANGE">
+                    <a:fld id="{06D8234B-C7A6-465A-A644-9D6F4E3893B5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -466,7 +466,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{35AA7C5F-B598-47BB-8431-E8D3774D00DD}" type="CELLRANGE">
+                    <a:fld id="{D022542A-ED91-47F6-9D7C-FBD3D671C48E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -499,7 +499,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C9ED65D0-5B6A-4D9C-AE2C-D3B15A637D8B}" type="CELLRANGE">
+                    <a:fld id="{C220C9C6-86F1-44C5-BDA3-04CB9BFF5D0F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -979,7 +979,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E1F0ED4B-18A6-43BA-A817-F13687EDE6FA}" type="CELLRANGE">
+                    <a:fld id="{B128CA12-427A-43E4-AD7E-979539F1E693}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1012,7 +1012,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6F17CECD-50EC-453D-B643-C782FD9262AA}" type="CELLRANGE">
+                    <a:fld id="{3443DCDB-E1A0-4CFC-9294-9D085B3310CE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1045,7 +1045,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81931CBC-38B9-4E25-A931-DAEAF1B35B4D}" type="CELLRANGE">
+                    <a:fld id="{13680587-873D-4081-815C-D12B017016B9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1078,7 +1078,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C50F3FE9-E2D5-48E2-95AA-E4F129C65C26}" type="CELLRANGE">
+                    <a:fld id="{6495B743-0F53-4765-B7E0-EF93A7EF2795}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1111,7 +1111,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E98071B-3DCC-40BE-9EFD-D448886F7FCA}" type="CELLRANGE">
+                    <a:fld id="{D5AFEC71-A1C1-44D6-A5B7-4F6D0F62F5AB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1144,7 +1144,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B28CF1F4-2E04-4716-84A7-8038AB7DB608}" type="CELLRANGE">
+                    <a:fld id="{3FFDE26E-A268-46DD-B5CE-A7D8E6A2B2F8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1177,7 +1177,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8FE3476C-097E-4D56-B1DD-F70AEAB7E65C}" type="CELLRANGE">
+                    <a:fld id="{3920BD62-0AB7-4D7E-BA7D-B6296023E366}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1210,24 +1210,18 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AE798F57-91C9-4011-B382-4357002AF64B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1243,24 +1237,18 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3AEB93DB-5A83-4C1F-99D4-B2EF1D0CC1BB}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1276,24 +1264,18 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F3365440-1034-4B38-8091-1C4484B0B6DC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -28095,34 +28077,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1000"/>
                 <c:pt idx="0">
-                  <c:v>0.64</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88600000000000001</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90700000000000003</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14199999999999999</c:v>
+                  <c:v>0.28499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.10199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.18099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.31900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.876</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28134,34 +28107,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1000"/>
                 <c:pt idx="0">
-                  <c:v>2.5999999999999999E-2</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33500000000000002</c:v>
+                  <c:v>7844</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53700000000000003</c:v>
+                  <c:v>0.64100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94799999999999995</c:v>
+                  <c:v>7844</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.95399999999999996</c:v>
+                  <c:v>4798</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64200000000000002</c:v>
+                  <c:v>0.59699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.19900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.108</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.24399999999999999</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28174,34 +28138,25 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="1000"/>
                   <c:pt idx="0">
-                    <c:v>15</c:v>
+                    <c:v>5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1</c:v>
+                    <c:v>10</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>12</c:v>
+                    <c:v>3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7</c:v>
+                    <c:v>2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>11</c:v>
+                    <c:v>6</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3</c:v>
+                    <c:v>4</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>17</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>13</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>18</c:v>
+                    <c:v>1</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -29556,15 +29511,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>405848</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29592,6 +29547,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29893,7 +29852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C032B026-FC4B-4CAB-AD2C-997BDF6F7422}">
   <dimension ref="A3:C13"/>
   <sheetViews>
-    <sheetView zoomScale="127" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="127" workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
@@ -30028,122 +29987,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18804A16-011A-40BE-BC92-581B0B76C6F2}">
-  <dimension ref="B3:D12"/>
+  <dimension ref="B3:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="114" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D12"/>
+    <sheetView topLeftCell="B1" zoomScale="92" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>0.64</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D3">
-        <v>2.5999999999999999E-2</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>0.88600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="D4">
-        <v>0.33500000000000002</v>
+        <v>7844</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>0.53700000000000003</v>
+        <v>0.64100000000000001</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>0.90700000000000003</v>
+        <v>0.6</v>
       </c>
       <c r="D6">
-        <v>0.94799999999999995</v>
+        <v>7844</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>0.14199999999999999</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="D7">
-        <v>0.95399999999999996</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>0.10199999999999999</v>
       </c>
       <c r="D8">
-        <v>0.64200000000000002</v>
+        <v>0.59699999999999998</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0.10199999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="D9">
-        <v>0.59699999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="D10">
-        <v>0.19900000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="D11">
-        <v>0.108</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>0.876</v>
-      </c>
-      <c r="D12">
-        <v>0.24399999999999999</v>
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>

--- a/potato/potato.xlsx
+++ b/potato/potato.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7375dc4232974b34/Documents/GitHub/scratch/potato/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{8ABC3B86-0BC8-4A52-B230-F4DDD4D7A4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8283C8F3-0AE4-48D5-9BA2-3C8F2E54EF6D}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{8ABC3B86-0BC8-4A52-B230-F4DDD4D7A4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68C8F2B4-FEE0-4468-B4B4-D0DEF0ABA3BA}"/>
   <bookViews>
-    <workbookView xWindow="-2952" yWindow="1056" windowWidth="16500" windowHeight="15264" xr2:uid="{66E4708A-3751-4159-9CB5-6C73957F8B92}"/>
+    <workbookView xWindow="7476" yWindow="1320" windowWidth="16332" windowHeight="15264" activeTab="1" xr2:uid="{66E4708A-3751-4159-9CB5-6C73957F8B92}"/>
   </bookViews>
   <sheets>
     <sheet name="small" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B2ECBB3-56EC-4EC8-9191-47F8E320E65F}" type="CELLRANGE">
+                    <a:fld id="{D573BE4F-0864-4843-9BD6-61A14C6BC7AE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -202,7 +202,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CA910A6F-313A-4278-A0E4-6B8AA830A08E}" type="CELLRANGE">
+                    <a:fld id="{D49400E9-86C4-4899-8F49-7867F59BEC92}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -235,7 +235,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B2722F91-FD73-4AA7-A2D1-B97BAE9E7794}" type="CELLRANGE">
+                    <a:fld id="{2D057387-22D6-4B9E-A73E-E1F3B89867C0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -268,7 +268,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B2674B71-7641-4D1F-B614-B04029EFEA77}" type="CELLRANGE">
+                    <a:fld id="{705E41E1-A0E9-4A82-A755-9861DA337DB8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -301,7 +301,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD216ACE-2BCC-443B-9E75-F99DF65E08DD}" type="CELLRANGE">
+                    <a:fld id="{91E8F403-F2AC-4F31-8F02-C8630D5E0345}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -334,7 +334,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B6292DE7-F150-4B7C-A964-FCBB106441A2}" type="CELLRANGE">
+                    <a:fld id="{C58515CA-DE5D-4025-85EF-BE04CE6543D6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -367,7 +367,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{19D3241E-773E-4E41-9A4B-3CC27850CCE9}" type="CELLRANGE">
+                    <a:fld id="{53E3018A-5616-4B20-8B03-214DF7CA9711}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -400,7 +400,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0DF7DBA2-40FB-43C9-9E7E-39F68E05CCF4}" type="CELLRANGE">
+                    <a:fld id="{24F7D2D1-860B-4216-8E0A-55DA647F1FA2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -433,7 +433,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{06D8234B-C7A6-465A-A644-9D6F4E3893B5}" type="CELLRANGE">
+                    <a:fld id="{80A4AA27-56F2-4FD4-8F9D-EA5AAEF83464}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -466,7 +466,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D022542A-ED91-47F6-9D7C-FBD3D671C48E}" type="CELLRANGE">
+                    <a:fld id="{2E62BE03-0B46-44BC-B4AF-C75E42B722E1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -499,7 +499,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C220C9C6-86F1-44C5-BDA3-04CB9BFF5D0F}" type="CELLRANGE">
+                    <a:fld id="{3690F863-B434-426F-A117-2ECBAC1A8ED5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -942,7 +942,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3901766688201257E-2"/>
+          <c:y val="8.5908147230058782E-2"/>
+          <c:w val="0.91180259392051699"/>
+          <c:h val="0.87694812593876637"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -979,7 +989,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B128CA12-427A-43E4-AD7E-979539F1E693}" type="CELLRANGE">
+                    <a:fld id="{43B5DBFF-3635-4E23-9845-6ABE8C03BE08}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1012,7 +1022,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3443DCDB-E1A0-4CFC-9294-9D085B3310CE}" type="CELLRANGE">
+                    <a:fld id="{8E49B9AA-1627-4789-987D-93794B1B5C29}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1045,7 +1055,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{13680587-873D-4081-815C-D12B017016B9}" type="CELLRANGE">
+                    <a:fld id="{301500E0-9A76-4328-A09C-34E33D8C6F72}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1078,7 +1088,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6495B743-0F53-4765-B7E0-EF93A7EF2795}" type="CELLRANGE">
+                    <a:fld id="{4E0E39DB-BF42-42B3-AA79-F6BB28005366}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1111,7 +1121,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5AFEC71-A1C1-44D6-A5B7-4F6D0F62F5AB}" type="CELLRANGE">
+                    <a:fld id="{40B27410-E8E1-4CA3-A87B-B322D8983D78}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1144,7 +1154,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3FFDE26E-A268-46DD-B5CE-A7D8E6A2B2F8}" type="CELLRANGE">
+                    <a:fld id="{F358BB8F-8EA5-4048-8AE8-E1DAC5312B59}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1177,7 +1187,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3920BD62-0AB7-4D7E-BA7D-B6296023E366}" type="CELLRANGE">
+                    <a:fld id="{EBD769DD-E2C5-4CF8-8D01-77F13A409CEE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1210,18 +1220,24 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                    <a:fld id="{0E11677E-7C81-4B84-8F6C-80F1AF69C3D6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1237,18 +1253,24 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                    <a:fld id="{920562E6-0752-44DE-9315-255486827192}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1264,18 +1286,24 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                    <a:fld id="{AEE2D741-6405-4FF2-8BA4-E272A547E47B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1291,18 +1319,24 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                    <a:fld id="{DFD82B45-19AC-4707-8BB2-C534301AA518}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1318,18 +1352,24 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                    <a:fld id="{6CFA199B-04FF-45DC-98C4-BD2F6D6D2E6D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1345,18 +1385,24 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                    <a:fld id="{58A85A77-CFDC-4107-9BC2-06F16C4B19FD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1372,18 +1418,24 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                    <a:fld id="{18348B0F-094A-48D1-9060-64B325F947BC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1399,18 +1451,24 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                    <a:fld id="{7A142192-A7C7-4452-B7AF-1FC91F67D511}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1426,18 +1484,24 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                    <a:fld id="{A99353DB-8115-4594-AA9C-317849D0A72B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1453,18 +1517,24 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                    <a:fld id="{07291CE5-5A7B-4DC5-BDC0-2B0D8663AA8B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1480,18 +1550,24 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                    <a:fld id="{896D376D-F7E7-471E-879C-BA734BD9A0EE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1507,18 +1583,24 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                    <a:fld id="{55EC7A84-2FAC-4333-8C9E-30ACF41947BD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1534,18 +1616,24 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                    <a:fld id="{5790EDD9-82C5-4700-9F53-997CB8863E67}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1561,18 +1649,24 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                    <a:fld id="{C85D754C-7825-4887-B334-D11AD306BC84}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1588,18 +1682,24 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                    <a:fld id="{9E1FDAB2-0B9A-4EB8-88E0-E14D3C76ED1B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1615,18 +1715,24 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                    <a:fld id="{1443615B-5313-4E51-9D79-7E3DC740086E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1642,18 +1748,24 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                    <a:fld id="{7E6594A8-BE46-4B4F-9B96-345B5674C83A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1669,18 +1781,24 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                    <a:fld id="{6C283DE7-87FB-4872-AD0D-2C2E8A44021A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1696,18 +1814,24 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                    <a:fld id="{BD5C8AF2-29D2-43A3-9D76-E522B559FDFE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1723,18 +1847,24 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                    <a:fld id="{65CD79F7-E4F9-4EBB-A022-65E46F7D1031}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1750,18 +1880,24 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                    <a:fld id="{7BD1B92C-B636-4998-A221-1CE8ACD52768}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1777,18 +1913,24 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                    <a:fld id="{5DF15E77-3903-4997-BA4C-1EB67F081164}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1804,18 +1946,24 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                    <a:fld id="{247E291E-E8EF-4923-BFBF-766539932E32}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -28072,60 +28220,198 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$C$3:$C$1002</c:f>
+              <c:f>Sheet2!$D$3:$D$1002</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1000"/>
                 <c:pt idx="0">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.27100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.40300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>0.92500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6</c:v>
+                  <c:v>0.95599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28499999999999998</c:v>
+                  <c:v>0.997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10199999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.96299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.36099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.25800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.64100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.5000000000000006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$D$3:$D$1002</c:f>
+              <c:f>Sheet2!$E$3:$E$1002</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1000"/>
                 <c:pt idx="0">
-                  <c:v>0.26</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7844</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64100000000000001</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7844</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4798</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59699999999999998</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31</c:v>
+                  <c:v>0.126</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.77100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.94699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.72199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28134,29 +28420,98 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Sheet2!$B$3:$B$1002</c15:f>
+                <c15:f>Sheet2!$C$3:$C$1002</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="1000"/>
                   <c:pt idx="0">
-                    <c:v>5</c:v>
+                    <c:v>3589</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>10</c:v>
+                    <c:v>7222</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3</c:v>
+                    <c:v>8774</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2</c:v>
+                    <c:v>1489</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6</c:v>
+                    <c:v>6917</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4</c:v>
+                    <c:v>6080</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1</c:v>
+                    <c:v>5303</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>9322</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1360</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3696</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2103</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>203</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2883</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2495</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>9352</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1738</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1758</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>4983</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>4797</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1194</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>56</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>3213</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>9590</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>3904</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>7701</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>1796</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>1063</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>647</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>8710</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>7712</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -29510,13 +29865,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>405848</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>57978</xdr:rowOff>
@@ -29852,7 +30207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C032B026-FC4B-4CAB-AD2C-997BDF6F7422}">
   <dimension ref="A3:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="127" workbookViewId="0">
+    <sheetView zoomScale="127" workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
@@ -29987,89 +30342,543 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18804A16-011A-40BE-BC92-581B0B76C6F2}">
-  <dimension ref="B3:D9"/>
+  <dimension ref="A3:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="92" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>MATCH(C3,B:B,0)</f>
+        <v>14</v>
+      </c>
       <c r="B3">
+        <v>56</v>
+      </c>
+      <c r="C3">
+        <v>3589</v>
+      </c>
+      <c r="D3">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" ref="A4:A32" si="0">MATCH(C4,B:B,0)</f>
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>203</v>
+      </c>
+      <c r="C4">
+        <v>7222</v>
+      </c>
+      <c r="D4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>1194</v>
+      </c>
+      <c r="C5">
+        <v>8774</v>
+      </c>
+      <c r="D5">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1360</v>
+      </c>
+      <c r="C6">
+        <v>1489</v>
+      </c>
+      <c r="D6">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="E6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>1489</v>
+      </c>
+      <c r="C7">
+        <v>6917</v>
+      </c>
+      <c r="D7">
+        <v>0.997</v>
+      </c>
+      <c r="E7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>1738</v>
+      </c>
+      <c r="C8">
+        <v>6080</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1758</v>
+      </c>
+      <c r="C9">
+        <v>5303</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>2103</v>
+      </c>
+      <c r="C10">
+        <v>9322</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0.77100000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>2495</v>
+      </c>
+      <c r="C11">
+        <v>1360</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0.86299999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>2883</v>
+      </c>
+      <c r="C12">
+        <v>3696</v>
+      </c>
+      <c r="D12">
+        <v>0.997</v>
+      </c>
+      <c r="E12">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>3213</v>
+      </c>
+      <c r="C13">
+        <v>2103</v>
+      </c>
+      <c r="D13">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>3589</v>
+      </c>
+      <c r="C14">
+        <v>203</v>
+      </c>
+      <c r="D14">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="E14">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>3696</v>
+      </c>
+      <c r="C15">
+        <v>2883</v>
+      </c>
+      <c r="D15">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>3904</v>
+      </c>
+      <c r="C16">
+        <v>2495</v>
+      </c>
+      <c r="D16">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>4797</v>
+      </c>
+      <c r="C17">
+        <v>9352</v>
+      </c>
+      <c r="D17">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>4983</v>
+      </c>
+      <c r="C18">
+        <v>1738</v>
+      </c>
+      <c r="D18">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>5303</v>
+      </c>
+      <c r="C19">
+        <v>1758</v>
+      </c>
+      <c r="D19">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>6080</v>
+      </c>
+      <c r="C20">
+        <v>4983</v>
+      </c>
+      <c r="D20">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>6917</v>
+      </c>
+      <c r="C21">
+        <v>4797</v>
+      </c>
+      <c r="D21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E21">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>0.55000000000000004</v>
+      <c r="B22">
+        <v>7222</v>
       </c>
-      <c r="D3">
-        <v>0.26</v>
+      <c r="C22">
+        <v>1194</v>
+      </c>
+      <c r="D22">
+        <v>2E-3</v>
+      </c>
+      <c r="E22">
+        <v>0.94699999999999995</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>10</v>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
-      <c r="C4">
-        <v>0.6</v>
+      <c r="B23">
+        <v>7701</v>
       </c>
-      <c r="D4">
-        <v>7844</v>
+      <c r="C23">
+        <v>56</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>3</v>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
-      <c r="C5">
-        <v>5</v>
+      <c r="B24">
+        <v>7712</v>
       </c>
-      <c r="D5">
+      <c r="C24">
+        <v>3213</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>8710</v>
+      </c>
+      <c r="C25">
+        <v>9590</v>
+      </c>
+      <c r="D25">
+        <v>2E-3</v>
+      </c>
+      <c r="E25">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>8774</v>
+      </c>
+      <c r="C26">
+        <v>3904</v>
+      </c>
+      <c r="D26">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E26">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>9322</v>
+      </c>
+      <c r="C27">
+        <v>7701</v>
+      </c>
+      <c r="D27">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E27">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B28">
+        <v>9352</v>
+      </c>
+      <c r="C28">
+        <v>1796</v>
+      </c>
+      <c r="D28">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E28">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="B29">
+        <v>9590</v>
+      </c>
+      <c r="C29">
+        <v>1063</v>
+      </c>
+      <c r="D29">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="E29">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C30">
+        <v>647</v>
+      </c>
+      <c r="D30">
         <v>0.64100000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>0.6</v>
-      </c>
-      <c r="D6">
-        <v>7844</v>
+      <c r="E30">
+        <v>2E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>6</v>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
-      <c r="C7">
-        <v>0.28499999999999998</v>
+      <c r="C31">
+        <v>8710</v>
       </c>
-      <c r="D7">
-        <v>4798</v>
+      <c r="D31">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E31">
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>4</v>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
-      <c r="C8">
-        <v>0.10199999999999999</v>
+      <c r="C32">
+        <v>7712</v>
       </c>
-      <c r="D8">
-        <v>0.59699999999999998</v>
+      <c r="D32">
+        <v>8.5000000000000006E-2</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0.88</v>
-      </c>
-      <c r="D9">
-        <v>0.31</v>
+      <c r="E32">
+        <v>2E-3</v>
       </c>
     </row>
   </sheetData>

--- a/potato/potato.xlsx
+++ b/potato/potato.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7375dc4232974b34/Documents/GitHub/scratch/potato/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{8ABC3B86-0BC8-4A52-B230-F4DDD4D7A4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68C8F2B4-FEE0-4468-B4B4-D0DEF0ABA3BA}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{8ABC3B86-0BC8-4A52-B230-F4DDD4D7A4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2866B44B-857B-45DC-BA62-CF1B1D07FFF4}"/>
   <bookViews>
-    <workbookView xWindow="7476" yWindow="1320" windowWidth="16332" windowHeight="15264" activeTab="1" xr2:uid="{66E4708A-3751-4159-9CB5-6C73957F8B92}"/>
+    <workbookView xWindow="1716" yWindow="1416" windowWidth="20580" windowHeight="15264" activeTab="1" xr2:uid="{66E4708A-3751-4159-9CB5-6C73957F8B92}"/>
   </bookViews>
   <sheets>
     <sheet name="small" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -169,7 +173,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D573BE4F-0864-4843-9BD6-61A14C6BC7AE}" type="CELLRANGE">
+                    <a:fld id="{C9961BD5-D105-4E38-8673-F028B2521A75}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -202,7 +206,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D49400E9-86C4-4899-8F49-7867F59BEC92}" type="CELLRANGE">
+                    <a:fld id="{157EEE9B-CC84-406B-A117-45449A978C25}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -235,7 +239,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D057387-22D6-4B9E-A73E-E1F3B89867C0}" type="CELLRANGE">
+                    <a:fld id="{100F5B0C-8E14-4684-A2D9-A0C4A1F54505}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -268,7 +272,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{705E41E1-A0E9-4A82-A755-9861DA337DB8}" type="CELLRANGE">
+                    <a:fld id="{F359D3AE-340E-4345-B961-673F3E317284}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -301,7 +305,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{91E8F403-F2AC-4F31-8F02-C8630D5E0345}" type="CELLRANGE">
+                    <a:fld id="{C31A3A15-9D05-4573-BC1B-413369FFDFD2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -334,7 +338,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C58515CA-DE5D-4025-85EF-BE04CE6543D6}" type="CELLRANGE">
+                    <a:fld id="{B47852E4-0085-41C7-A059-6132C86F592F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -367,7 +371,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{53E3018A-5616-4B20-8B03-214DF7CA9711}" type="CELLRANGE">
+                    <a:fld id="{396516B0-904F-433A-B58F-EE4F9A5CBC7B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -400,7 +404,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24F7D2D1-860B-4216-8E0A-55DA647F1FA2}" type="CELLRANGE">
+                    <a:fld id="{5A668E84-46D1-4DE3-8940-F566DFF53FC7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -433,7 +437,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{80A4AA27-56F2-4FD4-8F9D-EA5AAEF83464}" type="CELLRANGE">
+                    <a:fld id="{10237048-2F19-4028-863F-D2B167AC0207}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -466,7 +470,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E62BE03-0B46-44BC-B4AF-C75E42B722E1}" type="CELLRANGE">
+                    <a:fld id="{7B47321E-788B-43BD-BAFB-8A92A0DCFFC0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -499,7 +503,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3690F863-B434-426F-A117-2ECBAC1A8ED5}" type="CELLRANGE">
+                    <a:fld id="{F92FD968-C6A1-4089-90BF-4C10E185F29E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -989,7 +993,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43B5DBFF-3635-4E23-9845-6ABE8C03BE08}" type="CELLRANGE">
+                    <a:fld id="{90CB5782-5C0D-4E10-8A7A-35E69C2C144B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1022,7 +1026,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8E49B9AA-1627-4789-987D-93794B1B5C29}" type="CELLRANGE">
+                    <a:fld id="{60309380-59E8-4866-9EB7-629476566914}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1055,7 +1059,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{301500E0-9A76-4328-A09C-34E33D8C6F72}" type="CELLRANGE">
+                    <a:fld id="{5E8C7B54-26C8-4AE0-8FC7-E5F96926A7D2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1088,7 +1092,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4E0E39DB-BF42-42B3-AA79-F6BB28005366}" type="CELLRANGE">
+                    <a:fld id="{E60A7772-4D46-4005-9105-80070DFDD7BC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1121,7 +1125,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40B27410-E8E1-4CA3-A87B-B322D8983D78}" type="CELLRANGE">
+                    <a:fld id="{9DD6CB95-CA0C-4A04-BBC7-8702E4C69761}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1154,7 +1158,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F358BB8F-8EA5-4048-8AE8-E1DAC5312B59}" type="CELLRANGE">
+                    <a:fld id="{B1C0269B-4DDF-4E11-BAB7-24D96B758B61}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1187,7 +1191,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EBD769DD-E2C5-4CF8-8D01-77F13A409CEE}" type="CELLRANGE">
+                    <a:fld id="{7E2A6658-6E63-4C9E-BF9E-22CF4729D213}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1220,7 +1224,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E11677E-7C81-4B84-8F6C-80F1AF69C3D6}" type="CELLRANGE">
+                    <a:fld id="{A1E1ABE6-62E1-4009-BB47-DF4218A18D1D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1253,7 +1257,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{920562E6-0752-44DE-9315-255486827192}" type="CELLRANGE">
+                    <a:fld id="{FA553976-C221-46D6-BF74-B3AAFD3D99D8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1286,7 +1290,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AEE2D741-6405-4FF2-8BA4-E272A547E47B}" type="CELLRANGE">
+                    <a:fld id="{0C5474DC-0D46-410F-ACBD-E1740F07BF16}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1319,7 +1323,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DFD82B45-19AC-4707-8BB2-C534301AA518}" type="CELLRANGE">
+                    <a:fld id="{C2CC31FF-705F-446F-A676-F9C71DABBD8D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1352,7 +1356,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6CFA199B-04FF-45DC-98C4-BD2F6D6D2E6D}" type="CELLRANGE">
+                    <a:fld id="{D86F85FB-9F39-4A5F-8659-5A0042DA657A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1385,7 +1389,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{58A85A77-CFDC-4107-9BC2-06F16C4B19FD}" type="CELLRANGE">
+                    <a:fld id="{18BD80D2-81B6-4F11-AC4D-B35461C24D0F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1418,7 +1422,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{18348B0F-094A-48D1-9060-64B325F947BC}" type="CELLRANGE">
+                    <a:fld id="{4541BD85-0314-4B5A-9725-E3F4A0C133B0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1451,7 +1455,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A142192-A7C7-4452-B7AF-1FC91F67D511}" type="CELLRANGE">
+                    <a:fld id="{112016F1-A7FA-46FB-8B0D-834B8493E7FC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1484,7 +1488,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A99353DB-8115-4594-AA9C-317849D0A72B}" type="CELLRANGE">
+                    <a:fld id="{357531EF-F6B8-46BD-AC4A-905A0A839E6D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1517,7 +1521,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07291CE5-5A7B-4DC5-BDC0-2B0D8663AA8B}" type="CELLRANGE">
+                    <a:fld id="{E605B85D-60D4-45E1-B863-76E17DE053DA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1550,7 +1554,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{896D376D-F7E7-471E-879C-BA734BD9A0EE}" type="CELLRANGE">
+                    <a:fld id="{30D65CBA-8804-4DA9-B725-F05E6F549090}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1583,7 +1587,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{55EC7A84-2FAC-4333-8C9E-30ACF41947BD}" type="CELLRANGE">
+                    <a:fld id="{187EAA53-4A81-41BB-9151-35D8FD81B474}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1616,7 +1620,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5790EDD9-82C5-4700-9F53-997CB8863E67}" type="CELLRANGE">
+                    <a:fld id="{D42BD3B0-489F-40A3-B7C9-EE11595779D1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1649,7 +1653,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C85D754C-7825-4887-B334-D11AD306BC84}" type="CELLRANGE">
+                    <a:fld id="{0E274291-FFEA-4031-9CE2-679B960C548D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1682,7 +1686,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9E1FDAB2-0B9A-4EB8-88E0-E14D3C76ED1B}" type="CELLRANGE">
+                    <a:fld id="{836C5326-2451-4911-9910-FB3E26E147E6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1715,7 +1719,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1443615B-5313-4E51-9D79-7E3DC740086E}" type="CELLRANGE">
+                    <a:fld id="{026A443B-9B35-40C3-9ECF-36ECCED9CEBA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1748,7 +1752,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E6594A8-BE46-4B4F-9B96-345B5674C83A}" type="CELLRANGE">
+                    <a:fld id="{6EAB9E49-ADFC-482C-A0EE-78291C24A96B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1781,7 +1785,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6C283DE7-87FB-4872-AD0D-2C2E8A44021A}" type="CELLRANGE">
+                    <a:fld id="{D5F3A87E-C3AB-4411-A686-5828C23CCA32}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1814,7 +1818,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD5C8AF2-29D2-43A3-9D76-E522B559FDFE}" type="CELLRANGE">
+                    <a:fld id="{8DC3FCDB-D58B-4E24-96EC-A78D5897312D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1847,7 +1851,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65CD79F7-E4F9-4EBB-A022-65E46F7D1031}" type="CELLRANGE">
+                    <a:fld id="{888B96BB-ADE7-4094-A399-ACFC5C1B99ED}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1880,7 +1884,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7BD1B92C-B636-4998-A221-1CE8ACD52768}" type="CELLRANGE">
+                    <a:fld id="{03C4E7A6-6F3A-4E11-9471-5650B41D9899}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1913,24 +1917,18 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5DF15E77-3903-4997-BA4C-1EB67F081164}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -1946,24 +1944,18 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{247E291E-E8EF-4923-BFBF-766539932E32}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -28225,94 +28217,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1000"/>
                 <c:pt idx="0">
-                  <c:v>0.27100000000000002</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40300000000000002</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92500000000000004</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.318</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.95599999999999996</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.997</c:v>
+                <c:pt idx="8">
+                  <c:v>0.99199999999999999</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
+                <c:pt idx="13">
+                  <c:v>0.998</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
+                <c:pt idx="14">
+                  <c:v>0.996</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.997</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>0.98399999999999999</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>0.96299999999999997</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>0.91900000000000004</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>0.67100000000000004</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.36099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>0.16300000000000001</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>7.6999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.5999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.0000000000000001E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.0000000000000001E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.25800000000000001</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.64100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8.5000000000000006E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28324,94 +28310,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1000"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1E-3</c:v>
+                <c:pt idx="8">
+                  <c:v>1.9E-2</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.0000000000000002E-3</c:v>
+                <c:pt idx="9">
+                  <c:v>5.1999999999999998E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.2999999999999997E-2</c:v>
+                <c:pt idx="10">
+                  <c:v>0.115</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.126</c:v>
+                <c:pt idx="11">
+                  <c:v>0.378</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.77100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>0.86299999999999999</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.97699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0.94599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>0.97299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>0.998</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.998</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.99199999999999999</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0.94699999999999995</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>0.72199999999999998</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.5999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.7000000000000001E-2</c:v>
+                  <c:v>0.58499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.443</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2E-3</c:v>
+                  <c:v>0.23200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2E-3</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28424,94 +28404,88 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="1000"/>
                   <c:pt idx="0">
-                    <c:v>3589</c:v>
+                    <c:v>1809</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7222</c:v>
+                    <c:v>3175</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8774</c:v>
+                    <c:v>2466</c:v>
                   </c:pt>
                   <c:pt idx="3">
+                    <c:v>1796</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1520</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2393</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1959</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
                     <c:v>1489</c:v>
                   </c:pt>
-                  <c:pt idx="4">
-                    <c:v>6917</c:v>
+                  <c:pt idx="8">
+                    <c:v>1471</c:v>
                   </c:pt>
-                  <c:pt idx="5">
-                    <c:v>6080</c:v>
+                  <c:pt idx="9">
+                    <c:v>2346</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>5303</c:v>
+                  <c:pt idx="10">
+                    <c:v>288</c:v>
                   </c:pt>
-                  <c:pt idx="7">
-                    <c:v>9322</c:v>
+                  <c:pt idx="11">
+                    <c:v>1778</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="12">
                     <c:v>1360</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>3696</c:v>
+                  <c:pt idx="13">
+                    <c:v>1634</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="14">
+                    <c:v>1111</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
                     <c:v>2103</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="16">
                     <c:v>203</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="17">
                     <c:v>2883</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="18">
                     <c:v>2495</c:v>
                   </c:pt>
-                  <c:pt idx="14">
-                    <c:v>9352</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="19">
                     <c:v>1738</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="20">
                     <c:v>1758</c:v>
                   </c:pt>
-                  <c:pt idx="17">
-                    <c:v>4983</c:v>
+                  <c:pt idx="21">
+                    <c:v>1500</c:v>
                   </c:pt>
-                  <c:pt idx="18">
-                    <c:v>4797</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="22">
                     <c:v>1194</c:v>
                   </c:pt>
-                  <c:pt idx="20">
+                  <c:pt idx="23">
                     <c:v>56</c:v>
                   </c:pt>
-                  <c:pt idx="21">
-                    <c:v>3213</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>9590</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>3904</c:v>
-                  </c:pt>
                   <c:pt idx="24">
-                    <c:v>7701</c:v>
+                    <c:v>2529</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>1796</c:v>
+                    <c:v>3013</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>1063</c:v>
+                    <c:v>362</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>647</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>8710</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>7712</c:v>
+                    <c:v>3213</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -30207,8 +30181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C032B026-FC4B-4CAB-AD2C-997BDF6F7422}">
   <dimension ref="A3:C13"/>
   <sheetViews>
-    <sheetView zoomScale="127" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView topLeftCell="B6" zoomScale="106" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30344,313 +30318,303 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18804A16-011A-40BE-BC92-581B0B76C6F2}">
   <dimension ref="A3:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:C30"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="88" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <f>MATCH(C3,B:B,0)</f>
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>56</v>
-      </c>
       <c r="C3">
-        <v>3589</v>
+        <v>1809</v>
       </c>
       <c r="D3">
-        <v>0.27100000000000002</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" t="e">
         <f t="shared" ref="A4:A32" si="0">MATCH(C4,B:B,0)</f>
-        <v>22</v>
+        <v>#N/A</v>
       </c>
       <c r="B4">
         <v>203</v>
       </c>
       <c r="C4">
-        <v>7222</v>
+        <v>3175</v>
       </c>
       <c r="D4">
-        <v>0.40300000000000002</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" t="e">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>#N/A</v>
       </c>
       <c r="B5">
         <v>1194</v>
       </c>
       <c r="C5">
-        <v>8774</v>
+        <v>2466</v>
       </c>
       <c r="D5">
-        <v>0.92500000000000004</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="E5">
-        <v>1E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" t="e">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>#N/A</v>
       </c>
       <c r="B6">
         <v>1360</v>
       </c>
       <c r="C6">
-        <v>1489</v>
+        <v>1796</v>
       </c>
       <c r="D6">
-        <v>0.95599999999999996</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E6">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" t="e">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>#N/A</v>
       </c>
       <c r="B7">
         <v>1489</v>
       </c>
       <c r="C7">
-        <v>6917</v>
+        <v>1520</v>
       </c>
       <c r="D7">
-        <v>0.997</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="E7">
-        <v>8.0000000000000002E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" t="e">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>#N/A</v>
       </c>
       <c r="B8">
         <v>1738</v>
       </c>
       <c r="C8">
-        <v>6080</v>
+        <v>2393</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.318</v>
       </c>
       <c r="E8">
-        <v>4.2999999999999997E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" t="e">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>1758</v>
+        <v>#N/A</v>
       </c>
       <c r="C9">
-        <v>5303</v>
+        <v>1959</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="E9">
-        <v>0.126</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>2103</v>
       </c>
       <c r="C10">
-        <v>9322</v>
+        <v>1489</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="E10">
-        <v>0.77100000000000002</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" t="e">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>#N/A</v>
       </c>
       <c r="B11">
         <v>2495</v>
       </c>
       <c r="C11">
-        <v>1360</v>
+        <v>1471</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="E11">
-        <v>0.86299999999999999</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" t="e">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>#N/A</v>
       </c>
       <c r="B12">
         <v>2883</v>
       </c>
       <c r="C12">
-        <v>3696</v>
+        <v>2346</v>
       </c>
       <c r="D12">
-        <v>0.997</v>
+        <v>0.999</v>
       </c>
       <c r="E12">
-        <v>0.97699999999999998</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" t="e">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>#N/A</v>
       </c>
       <c r="B13">
         <v>3213</v>
       </c>
       <c r="C13">
-        <v>2103</v>
+        <v>288</v>
       </c>
       <c r="D13">
-        <v>0.98399999999999999</v>
+        <v>0.999</v>
       </c>
       <c r="E13">
-        <v>0.998</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" t="e">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>#N/A</v>
       </c>
       <c r="B14">
         <v>3589</v>
       </c>
       <c r="C14">
-        <v>203</v>
+        <v>1778</v>
       </c>
       <c r="D14">
-        <v>0.96299999999999997</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0.999</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>3696</v>
       </c>
       <c r="C15">
-        <v>2883</v>
+        <v>1360</v>
       </c>
       <c r="D15">
-        <v>0.91900000000000004</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0.86299999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" t="e">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>#N/A</v>
       </c>
       <c r="B16">
         <v>3904</v>
       </c>
       <c r="C16">
-        <v>2495</v>
+        <v>1634</v>
       </c>
       <c r="D16">
-        <v>0.67100000000000004</v>
+        <v>0.998</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0.94599999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" t="e">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>#N/A</v>
       </c>
       <c r="B17">
         <v>4797</v>
       </c>
       <c r="C17">
-        <v>9352</v>
+        <v>1111</v>
       </c>
       <c r="D17">
-        <v>0.36099999999999999</v>
+        <v>0.996</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.97299999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>4983</v>
       </c>
       <c r="C18">
-        <v>1738</v>
+        <v>2103</v>
       </c>
       <c r="D18">
-        <v>0.16300000000000001</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>5303</v>
       </c>
       <c r="C19">
-        <v>1758</v>
+        <v>203</v>
       </c>
       <c r="D19">
-        <v>7.6999999999999999E-2</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="E19">
         <v>0.999</v>
@@ -30659,145 +30623,141 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>6080</v>
       </c>
       <c r="C20">
-        <v>4983</v>
+        <v>2883</v>
       </c>
       <c r="D20">
-        <v>2.5999999999999999E-2</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="E20">
-        <v>0.998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
       <c r="B21">
         <v>6917</v>
       </c>
       <c r="C21">
-        <v>4797</v>
+        <v>2495</v>
       </c>
       <c r="D21">
-        <v>4.0000000000000001E-3</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="E21">
-        <v>0.99199999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B22">
         <v>7222</v>
       </c>
       <c r="C22">
-        <v>1194</v>
+        <v>1738</v>
       </c>
       <c r="D22">
-        <v>2E-3</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="E22">
-        <v>0.94699999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" t="e">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
       <c r="B23">
         <v>7701</v>
       </c>
       <c r="C23">
-        <v>56</v>
+        <v>1758</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="E23">
-        <v>0.72199999999999998</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" t="e">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>#N/A</v>
       </c>
       <c r="B24">
         <v>7712</v>
       </c>
       <c r="C24">
-        <v>3213</v>
+        <v>1500</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E24">
-        <v>0.16</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B25">
         <v>8710</v>
       </c>
       <c r="C25">
-        <v>9590</v>
+        <v>1194</v>
       </c>
       <c r="D25">
         <v>2E-3</v>
       </c>
       <c r="E25">
-        <v>2.5999999999999999E-2</v>
+        <v>0.94699999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" t="e">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>#N/A</v>
       </c>
       <c r="B26">
         <v>8774</v>
       </c>
       <c r="C26">
-        <v>3904</v>
+        <v>56</v>
       </c>
       <c r="D26">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>2.1000000000000001E-2</v>
+        <v>0.72199999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" t="e">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>#N/A</v>
       </c>
       <c r="B27">
         <v>9322</v>
       </c>
       <c r="C27">
-        <v>7701</v>
+        <v>2529</v>
       </c>
       <c r="D27">
-        <v>7.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="E27">
-        <v>1.7000000000000001E-2</v>
+        <v>0.58499999999999996</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -30809,13 +30769,13 @@
         <v>9352</v>
       </c>
       <c r="C28">
-        <v>1796</v>
+        <v>3013</v>
       </c>
       <c r="D28">
-        <v>7.4999999999999997E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="E28">
-        <v>5.0000000000000001E-3</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -30827,58 +30787,40 @@
         <v>9590</v>
       </c>
       <c r="C29">
-        <v>1063</v>
+        <v>362</v>
       </c>
       <c r="D29">
-        <v>0.25800000000000001</v>
+        <v>2E-3</v>
       </c>
       <c r="E29">
-        <v>2E-3</v>
+        <v>0.23200000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="e">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>3213</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="C30">
-        <v>647</v>
-      </c>
-      <c r="D30">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="E30">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C31">
-        <v>8710</v>
-      </c>
-      <c r="D31">
-        <v>3.9E-2</v>
-      </c>
-      <c r="E31">
-        <v>3.0000000000000001E-3</v>
-      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" t="e">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C32">
-        <v>7712</v>
-      </c>
-      <c r="D32">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="E32">
-        <v>2E-3</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>

--- a/potato/potato.xlsx
+++ b/potato/potato.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="76" documentId="8_{8ABC3B86-0BC8-4A52-B230-F4DDD4D7A4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2866B44B-857B-45DC-BA62-CF1B1D07FFF4}"/>
   <bookViews>
-    <workbookView xWindow="1716" yWindow="1416" windowWidth="20580" windowHeight="15264" activeTab="1" xr2:uid="{66E4708A-3751-4159-9CB5-6C73957F8B92}"/>
+    <workbookView xWindow="0" yWindow="1452" windowWidth="16332" windowHeight="15264" xr2:uid="{66E4708A-3751-4159-9CB5-6C73957F8B92}"/>
   </bookViews>
   <sheets>
     <sheet name="small" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -173,7 +169,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C9961BD5-D105-4E38-8673-F028B2521A75}" type="CELLRANGE">
+                    <a:fld id="{2FE9AC99-4D4F-488E-A061-F2D86A16E7D2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -206,7 +202,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{157EEE9B-CC84-406B-A117-45449A978C25}" type="CELLRANGE">
+                    <a:fld id="{DE20C6C2-D91A-46A8-B540-83EB8F40EE27}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -239,7 +235,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{100F5B0C-8E14-4684-A2D9-A0C4A1F54505}" type="CELLRANGE">
+                    <a:fld id="{C0D9D930-28EF-48E2-A3DC-3001CFECEC03}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -272,7 +268,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F359D3AE-340E-4345-B961-673F3E317284}" type="CELLRANGE">
+                    <a:fld id="{64DCEA78-2DD9-4700-8DBA-01425B7B098E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -305,7 +301,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C31A3A15-9D05-4573-BC1B-413369FFDFD2}" type="CELLRANGE">
+                    <a:fld id="{289F87F3-6B48-4B80-8AB4-C01565C4C7E0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -338,7 +334,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B47852E4-0085-41C7-A059-6132C86F592F}" type="CELLRANGE">
+                    <a:fld id="{54E3C63A-6F92-4E6B-9EF5-081F4BD0F656}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -371,7 +367,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{396516B0-904F-433A-B58F-EE4F9A5CBC7B}" type="CELLRANGE">
+                    <a:fld id="{6CEFFAD7-DA7A-4178-9F21-C5C871FD1979}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -404,7 +400,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A668E84-46D1-4DE3-8940-F566DFF53FC7}" type="CELLRANGE">
+                    <a:fld id="{C77E8FB3-29CD-4CF4-AD4D-FE5860811F78}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -437,7 +433,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10237048-2F19-4028-863F-D2B167AC0207}" type="CELLRANGE">
+                    <a:fld id="{54399460-9888-4673-BFB6-047E0634C620}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -470,7 +466,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7B47321E-788B-43BD-BAFB-8A92A0DCFFC0}" type="CELLRANGE">
+                    <a:fld id="{4A0D96D0-DDBC-47C5-B5A6-1235616EB83C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -503,7 +499,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F92FD968-C6A1-4089-90BF-4C10E185F29E}" type="CELLRANGE">
+                    <a:fld id="{2C1BD678-566A-408A-8FF6-7C6223951BAE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -993,7 +989,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{90CB5782-5C0D-4E10-8A7A-35E69C2C144B}" type="CELLRANGE">
+                    <a:fld id="{02320A9B-93BD-490C-99E2-433B8BE900A9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1026,7 +1022,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{60309380-59E8-4866-9EB7-629476566914}" type="CELLRANGE">
+                    <a:fld id="{AA9C8CD0-241E-4F60-9487-DA5A5CE8547B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1059,7 +1055,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E8C7B54-26C8-4AE0-8FC7-E5F96926A7D2}" type="CELLRANGE">
+                    <a:fld id="{B89AD39E-A320-481E-ADBD-3F6683FBC0CE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1092,7 +1088,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E60A7772-4D46-4005-9105-80070DFDD7BC}" type="CELLRANGE">
+                    <a:fld id="{6587614C-1273-4CB8-808E-CD9D346C0846}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1125,7 +1121,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9DD6CB95-CA0C-4A04-BBC7-8702E4C69761}" type="CELLRANGE">
+                    <a:fld id="{C63E4C9E-7085-4AAE-B149-AB355EA7B0E8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1158,7 +1154,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B1C0269B-4DDF-4E11-BAB7-24D96B758B61}" type="CELLRANGE">
+                    <a:fld id="{799C5926-9697-44A3-872A-C3BC5E4DDA6F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1191,7 +1187,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E2A6658-6E63-4C9E-BF9E-22CF4729D213}" type="CELLRANGE">
+                    <a:fld id="{C120A7A1-7E23-481A-84E5-4649582FAAC4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1224,7 +1220,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A1E1ABE6-62E1-4009-BB47-DF4218A18D1D}" type="CELLRANGE">
+                    <a:fld id="{8E998851-E557-469A-9E5C-0BE0E3C1BFFC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1257,7 +1253,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA553976-C221-46D6-BF74-B3AAFD3D99D8}" type="CELLRANGE">
+                    <a:fld id="{4C5D9453-58C4-4F5E-87DE-4F410EA70783}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1290,7 +1286,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C5474DC-0D46-410F-ACBD-E1740F07BF16}" type="CELLRANGE">
+                    <a:fld id="{539587C5-D3C7-4220-AA7D-F4E5BDBFA3B1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1323,7 +1319,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C2CC31FF-705F-446F-A676-F9C71DABBD8D}" type="CELLRANGE">
+                    <a:fld id="{942191BA-A4D6-406D-8031-2B36A6FA8887}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1356,7 +1352,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D86F85FB-9F39-4A5F-8659-5A0042DA657A}" type="CELLRANGE">
+                    <a:fld id="{4326B1AC-AA3B-4BDF-9CA2-73813422F851}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1389,7 +1385,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{18BD80D2-81B6-4F11-AC4D-B35461C24D0F}" type="CELLRANGE">
+                    <a:fld id="{EBBFFC3C-E619-4570-ABF4-B4EF31647544}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1422,7 +1418,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4541BD85-0314-4B5A-9725-E3F4A0C133B0}" type="CELLRANGE">
+                    <a:fld id="{27FB1F9F-04A0-4CF3-B32B-36CD29BEA33A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1455,7 +1451,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{112016F1-A7FA-46FB-8B0D-834B8493E7FC}" type="CELLRANGE">
+                    <a:fld id="{41602B17-81D9-415A-8209-B85B388BF446}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1488,7 +1484,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{357531EF-F6B8-46BD-AC4A-905A0A839E6D}" type="CELLRANGE">
+                    <a:fld id="{2FF87A22-5A70-4224-B30F-968CAF8CEDEC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1521,7 +1517,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E605B85D-60D4-45E1-B863-76E17DE053DA}" type="CELLRANGE">
+                    <a:fld id="{C4A3E1D0-20AD-4D25-AD3B-437E27016673}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1554,7 +1550,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{30D65CBA-8804-4DA9-B725-F05E6F549090}" type="CELLRANGE">
+                    <a:fld id="{F0993712-3D8D-4DA5-BE7C-9F984C7DE80C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1587,7 +1583,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{187EAA53-4A81-41BB-9151-35D8FD81B474}" type="CELLRANGE">
+                    <a:fld id="{7E9AEAF5-9580-4BD1-86B0-268276D741F0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1620,7 +1616,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D42BD3B0-489F-40A3-B7C9-EE11595779D1}" type="CELLRANGE">
+                    <a:fld id="{66D8A3C6-B068-4303-B989-104531A45D1E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1653,7 +1649,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E274291-FFEA-4031-9CE2-679B960C548D}" type="CELLRANGE">
+                    <a:fld id="{F64A1AC7-597F-4CE4-ADB3-65277A89CA0A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1686,7 +1682,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{836C5326-2451-4911-9910-FB3E26E147E6}" type="CELLRANGE">
+                    <a:fld id="{63827EAB-B40F-4CBB-9981-DF384BD57D80}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1719,7 +1715,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{026A443B-9B35-40C3-9ECF-36ECCED9CEBA}" type="CELLRANGE">
+                    <a:fld id="{A2EA6FD7-B4A8-4B70-B869-EA3EDC862F76}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1752,7 +1748,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6EAB9E49-ADFC-482C-A0EE-78291C24A96B}" type="CELLRANGE">
+                    <a:fld id="{EAE462A9-CDCD-4805-AD36-5F9601700671}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1785,7 +1781,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5F3A87E-C3AB-4411-A686-5828C23CCA32}" type="CELLRANGE">
+                    <a:fld id="{EBAF3002-50BE-4558-8331-B02E26F67D19}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1818,7 +1814,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8DC3FCDB-D58B-4E24-96EC-A78D5897312D}" type="CELLRANGE">
+                    <a:fld id="{33BECD7A-004D-4324-87B1-7C812E2D0C23}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1851,7 +1847,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{888B96BB-ADE7-4094-A399-ACFC5C1B99ED}" type="CELLRANGE">
+                    <a:fld id="{ED51D8D9-0692-4234-97EA-962297266CC3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1884,7 +1880,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{03C4E7A6-6F3A-4E11-9471-5650B41D9899}" type="CELLRANGE">
+                    <a:fld id="{3EC36C16-D14E-41D8-AF70-669208CAC751}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -30181,7 +30177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C032B026-FC4B-4CAB-AD2C-997BDF6F7422}">
   <dimension ref="A3:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="106" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="106" workbookViewId="0">
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
@@ -30318,7 +30314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18804A16-011A-40BE-BC92-581B0B76C6F2}">
   <dimension ref="A3:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="88" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="88" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
